--- a/production/tbs/templates/IMT_ES.xlsx
+++ b/production/tbs/templates/IMT_ES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dev\imt_gent\production\tbs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imt\production\tbs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4468683-08B6-47B7-951C-240C69CC7516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7A9C64-6600-404D-BC11-918656B52CD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,7 @@
   <definedNames>
     <definedName name="the_named_cell">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -52,9 +44,6 @@
     <t>[a.EXT_NAME]</t>
   </si>
   <si>
-    <t>[a.SEX]</t>
-  </si>
-  <si>
     <t>Department of Social Welfare and Development</t>
   </si>
   <si>
@@ -97,9 +86,6 @@
     <t>Ext. Name</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>Youth Development Sessions                       (indicate # of children)</t>
   </si>
   <si>
@@ -188,6 +174,12 @@
   </si>
   <si>
     <t>Area : [onshow.a_coverage]</t>
+  </si>
+  <si>
+    <t>LOWB</t>
+  </si>
+  <si>
+    <t>[a.LOWB]</t>
   </si>
 </sst>
 </file>
@@ -467,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -518,6 +510,15 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -566,12 +567,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -593,8 +588,8 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -943,7 +938,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,104 +948,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
+      <c r="A2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
+      <c r="A3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
+      <c r="A4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="8"/>
@@ -1069,7 +1064,7 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="9"/>
@@ -1099,117 +1094,117 @@
       <c r="V6" s="9"/>
     </row>
     <row r="7" spans="1:22" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="C7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="D7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="E7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="G7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="H7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="I7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="J7" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="L7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="47"/>
     </row>
     <row r="8" spans="1:22" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="22" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" s="24"/>
+      <c r="T8" s="27"/>
     </row>
     <row r="9" spans="1:22" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="43"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="O9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="P9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="Q9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="R9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="S9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="T9" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1218,16 +1213,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -1241,92 +1236,87 @@
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>6</v>
+      <c r="J10" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="K10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="17" t="s">
+      <c r="Q10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="R10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="S10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="17" t="s">
+      <c r="T10" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J11" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K11" s="21">
-        <f ca="1">SUM( K10                   : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( K10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="L11" s="21">
-        <f ca="1">SUM( L10                   : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( L10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="M11" s="21">
-        <f ca="1">SUM( M10                   : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( M10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="N11" s="21">
-        <f ca="1">SUM( N10                   : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( N10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="O11" s="21">
-        <f ca="1">SUM( O10                   : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( O10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <f ca="1">SUM( P10                   : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( P10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="Q11" s="21">
-        <f ca="1">SUM( Q10                   : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( Q10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="R11" s="21">
-        <f ca="1">SUM( R10                   : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( R10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="S11" s="21">
-        <f ca="1">SUM( S10                   : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( S10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="T11" s="21">
-        <f ca="1">SUM( T10                   : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( T10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:T8"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -1341,6 +1331,11 @@
     <mergeCell ref="L7:T7"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:T8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/production/tbs/templates/IMT_ES.xlsx
+++ b/production/tbs/templates/IMT_ES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imt\production\tbs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7A9C64-6600-404D-BC11-918656B52CD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F14944-2C45-42BE-900A-31EAEFC6FF89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R_A1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="the_named_cell">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>This sheet was hidden in the template, and it becomes visible.</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>[a.LOWB]</t>
+  </si>
+  <si>
+    <t>Other Interventions</t>
+  </si>
+  <si>
+    <t>[a.col10;ope=tbs:num]</t>
   </si>
 </sst>
 </file>
@@ -330,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -454,12 +460,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -510,23 +525,8 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -567,6 +567,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -579,17 +585,32 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -937,113 +958,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8:U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="5" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
     </row>
-    <row r="3" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
     </row>
-    <row r="4" spans="1:22" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:22" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="1:22" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -1070,7 +1091,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:22" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="6"/>
@@ -1093,92 +1114,96 @@
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:22" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
       <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
     </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="25" t="s">
+    <row r="8" spans="1:22" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="25" t="s">
+      <c r="M8" s="43"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="25" t="s">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="27"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="49" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="44"/>
+    <row r="9" spans="1:22" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="41"/>
       <c r="L9" s="12" t="s">
         <v>25</v>
       </c>
@@ -1206,8 +1231,9 @@
       <c r="T9" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="U9" s="50"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f>ROW()-9</f>
         <v>1</v>
@@ -1236,7 +1262,7 @@
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="22" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="16" t="s">
@@ -1269,54 +1295,66 @@
       <c r="T10" s="17" t="s">
         <v>47</v>
       </c>
+      <c r="U10" s="48" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="J11" s="20" t="s">
         <v>48</v>
       </c>
       <c r="K11" s="21">
-        <f ca="1">SUM( K10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( K10                     : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="L11" s="21">
-        <f ca="1">SUM( L10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( L10                     : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="M11" s="21">
-        <f ca="1">SUM( M10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( M10                     : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="N11" s="21">
-        <f ca="1">SUM( N10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( N10                     : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="O11" s="21">
-        <f ca="1">SUM( O10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( O10                     : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <f ca="1">SUM( P10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( P10                     : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="Q11" s="21">
-        <f ca="1">SUM( Q10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( Q10                     : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="R11" s="21">
-        <f ca="1">SUM( R10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( R10                     : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="S11" s="21">
-        <f ca="1">SUM( S10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( S10                     : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="T11" s="21">
-        <f ca="1">SUM( T10                    : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( T10                     : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="21">
+        <f ca="1">SUM( U10                     : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="L7:U7"/>
+    <mergeCell ref="U8:U9"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -1328,14 +1366,10 @@
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:T7"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:T8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1352,14 +1386,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
